--- a/ApolloQA/Data/RatingManual/GA/OR00003.LimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00003.LimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00003.LimitFactors" sheetId="1" r:id="R8fb5429bdea24012"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00003.LimitFactors" sheetId="1" r:id="R101dcdfb47ac48df"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,10 +12,10 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Limit</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Limit Factor</x:v>
+        <x:v>Combined Single Limit</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -23,7 +23,7 @@
         <x:v>$5,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4000</x:v>
+        <x:v>0.8500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -31,7 +31,23 @@
         <x:v>$10,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5000</x:v>
+        <x:v>0.8786</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$15,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9143</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9571</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -39,7 +55,39 @@
         <x:v>$25,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7500</x:v>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$30,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1067</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$35,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1291</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1572</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$45,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1909</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -47,7 +95,39 @@
         <x:v>$50,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>1.2246</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$55,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2608</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$60,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2971</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$65,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3333</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$70,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3696</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -55,7 +135,39 @@
         <x:v>$75,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.5000</x:v>
+        <x:v>1.4058</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4359</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$85,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4659</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$90,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4959</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$95,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5259</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -63,7 +175,31 @@
         <x:v>$100,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.0000</x:v>
+        <x:v>1.5559</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$125,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.6667</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$150,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.7543</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$200,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.8842</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -71,7 +207,31 @@
         <x:v>$250,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3.0000</x:v>
+        <x:v>1.9899</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.0816</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$350,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.1742</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$400,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.2759</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +239,23 @@
         <x:v>$500,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>5.0000</x:v>
+        <x:v>2.4361</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$600,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.5277</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$750,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.7039</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +263,7 @@
         <x:v>$1,000,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>10.0000</x:v>
+        <x:v>2.8087</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
